--- a/Payroll/test_combined.xlsx
+++ b/Payroll/test_combined.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="11_23F921ED8F130E13DF2C4C3F3DA8857D4BFF1AF9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61372072-DACD-4BA2-B91D-AE3CF6AEBB7F}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7770" yWindow="2355" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -793,7 +793,7 @@
   <dimension ref="A1:O2281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
